--- a/data/trans_orig/P14A09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E5AB2FD-19E2-4A35-93D5-C614D6B6A7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA0FA539-B415-4CC9-A7C3-ADC643B46A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0CDFE467-4C5B-43A3-BB67-4E39F5D7BEE8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50906D7D-B741-4653-A974-58A2D5EED3DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="190">
   <si>
     <t>Población que recibe medicación o terapia por asma en 2012 (Tasa respuesta: 2,32%)</t>
   </si>
@@ -111,7 +111,7 @@
     <t>84,03%</t>
   </si>
   <si>
-    <t>51,44%</t>
+    <t>51,79%</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -120,13 +120,13 @@
     <t>92,35%</t>
   </si>
   <si>
-    <t>76,54%</t>
+    <t>77,16%</t>
   </si>
   <si>
     <t>15,97%</t>
   </si>
   <si>
-    <t>48,56%</t>
+    <t>48,21%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -135,7 +135,7 @@
     <t>7,65%</t>
   </si>
   <si>
-    <t>23,46%</t>
+    <t>22,84%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -144,49 +144,49 @@
     <t>65,59%</t>
   </si>
   <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
   </si>
   <si>
     <t>96,33%</t>
   </si>
   <si>
-    <t>80,42%</t>
+    <t>82,9%</t>
   </si>
   <si>
     <t>84,71%</t>
   </si>
   <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
   </si>
   <si>
     <t>34,41%</t>
   </si>
   <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>19,58%</t>
+    <t>17,1%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -195,43 +195,43 @@
     <t>90,36%</t>
   </si>
   <si>
-    <t>60,04%</t>
+    <t>60,24%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>66,35%</t>
+    <t>64,71%</t>
   </si>
   <si>
     <t>89,42%</t>
   </si>
   <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>39,96%</t>
+    <t>39,76%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>33,65%</t>
+    <t>35,29%</t>
   </si>
   <si>
     <t>10,58%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -240,97 +240,97 @@
     <t>92,51%</t>
   </si>
   <si>
-    <t>75,67%</t>
+    <t>75,93%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>78,97%</t>
+    <t>79,28%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
-    <t>24,33%</t>
+    <t>24,07%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>21,03%</t>
+    <t>20,72%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>83,43%</t>
   </si>
   <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>90,03%</t>
   </si>
   <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -354,10 +354,10 @@
     <t>75,21%</t>
   </si>
   <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
   </si>
   <si>
     <t>74,46%</t>
@@ -366,31 +366,31 @@
     <t>52,43%</t>
   </si>
   <si>
-    <t>90,43%</t>
+    <t>90,53%</t>
   </si>
   <si>
     <t>74,83%</t>
   </si>
   <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
   </si>
   <si>
     <t>24,79%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
   </si>
   <si>
     <t>25,54%</t>
   </si>
   <si>
-    <t>9,57%</t>
+    <t>9,47%</t>
   </si>
   <si>
     <t>47,57%</t>
@@ -399,211 +399,214 @@
     <t>25,17%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
   </si>
   <si>
     <t>90,95%</t>
   </si>
   <si>
-    <t>69,09%</t>
+    <t>72,11%</t>
   </si>
   <si>
     <t>93,83%</t>
   </si>
   <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>30,91%</t>
+    <t>27,89%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
   </si>
   <si>
     <t>84,08%</t>
   </si>
   <si>
-    <t>54,46%</t>
+    <t>48,25%</t>
   </si>
   <si>
     <t>80,06%</t>
   </si>
   <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>81,15%</t>
   </si>
   <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
   </si>
   <si>
     <t>15,92%</t>
   </si>
   <si>
-    <t>45,54%</t>
+    <t>51,75%</t>
   </si>
   <si>
     <t>19,94%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
   </si>
   <si>
     <t>68,28%</t>
   </si>
   <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>80,82%</t>
   </si>
   <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
   </si>
   <si>
     <t>75,53%</t>
   </si>
   <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>31,72%</t>
   </si>
   <si>
-    <t>16,26%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
   </si>
   <si>
     <t>19,18%</t>
   </si>
   <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
   </si>
   <si>
     <t>24,47%</t>
   </si>
   <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
   </si>
   <si>
     <t>79,24%</t>
   </si>
   <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
   </si>
   <si>
     <t>84,75%</t>
   </si>
   <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
   </si>
   <si>
     <t>82,66%</t>
   </si>
   <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
   </si>
   <si>
     <t>17,34%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A8F463-2CF2-45CD-AE22-0161D699DE07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FC884C-DDE8-4575-9733-52DDE09E07BF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2078,7 +2081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EDE0FC-A71D-47DD-ACEE-8430116D3365}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4136B2B6-F046-484C-B0C8-438CF1E85450}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2879,7 +2882,7 @@
         <v>164</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -2888,13 +2891,13 @@
         <v>7898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -2903,13 +2906,13 @@
         <v>17440</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2980,13 @@
         <v>68296</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H19" s="7">
         <v>111</v>
@@ -2992,13 +2995,13 @@
         <v>119631</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M19" s="7">
         <v>177</v>
@@ -3007,13 +3010,13 @@
         <v>187928</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3031,13 @@
         <v>17889</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -3043,13 +3046,13 @@
         <v>21527</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -3058,13 +3061,13 @@
         <v>39415</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A09-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA0FA539-B415-4CC9-A7C3-ADC643B46A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3E51EBF-B1EB-4FB8-9623-C40EDFB8C461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50906D7D-B741-4653-A974-58A2D5EED3DF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B13F4027-A85D-4023-80BE-DD8F525FF045}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="184">
   <si>
     <t>Población que recibe medicación o terapia por asma en 2012 (Tasa respuesta: 2,32%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -105,13 +105,13 @@
     <t>36,25%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>51,79%</t>
+    <t>51,29%</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -120,13 +120,13 @@
     <t>92,35%</t>
   </si>
   <si>
-    <t>77,16%</t>
+    <t>72,9%</t>
   </si>
   <si>
     <t>15,97%</t>
   </si>
   <si>
-    <t>48,21%</t>
+    <t>48,71%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -135,103 +135,103 @@
     <t>7,65%</t>
   </si>
   <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>65,59%</t>
   </si>
   <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
   </si>
   <si>
     <t>96,33%</t>
   </si>
   <si>
-    <t>82,9%</t>
+    <t>79,45%</t>
   </si>
   <si>
     <t>84,71%</t>
   </si>
   <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
   </si>
   <si>
     <t>34,41%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>17,1%</t>
+    <t>20,55%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>90,36%</t>
   </si>
   <si>
-    <t>60,24%</t>
+    <t>59,86%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>64,71%</t>
+    <t>63,62%</t>
   </si>
   <si>
     <t>89,42%</t>
   </si>
   <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>39,76%</t>
+    <t>40,14%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>35,29%</t>
+    <t>36,38%</t>
   </si>
   <si>
     <t>10,58%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -240,103 +240,103 @@
     <t>92,51%</t>
   </si>
   <si>
-    <t>75,93%</t>
+    <t>75,94%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>79,28%</t>
+    <t>79,63%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
-    <t>24,07%</t>
+    <t>24,06%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>20,72%</t>
+    <t>20,37%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
   </si>
   <si>
     <t>83,43%</t>
   </si>
   <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>90,03%</t>
   </si>
   <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por asma en 2015 (Tasa respuesta: 3,29%)</t>
+    <t>Población que recibe medicación o terapia por asma en 2016 (Tasa respuesta: 3,29%)</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -354,259 +354,241 @@
     <t>75,21%</t>
   </si>
   <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
   </si>
   <si>
     <t>74,46%</t>
   </si>
   <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>74,83%</t>
   </si>
   <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>24,79%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
   </si>
   <si>
     <t>25,54%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
   </si>
   <si>
     <t>25,17%</t>
   </si>
   <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
   </si>
   <si>
     <t>90,95%</t>
   </si>
   <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
   </si>
   <si>
     <t>84,08%</t>
   </si>
   <si>
-    <t>48,25%</t>
+    <t>54,79%</t>
   </si>
   <si>
     <t>80,06%</t>
   </si>
   <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
   <si>
     <t>81,15%</t>
   </si>
   <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
+    <t>67,38%</t>
   </si>
   <si>
     <t>15,92%</t>
   </si>
   <si>
-    <t>51,75%</t>
+    <t>45,21%</t>
   </si>
   <si>
     <t>19,94%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
+    <t>32,62%</t>
   </si>
   <si>
     <t>68,28%</t>
   </si>
   <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
   </si>
   <si>
     <t>80,82%</t>
   </si>
   <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>75,53%</t>
   </si>
   <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
+    <t>63,65%</t>
   </si>
   <si>
     <t>31,72%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
   </si>
   <si>
     <t>19,18%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
   </si>
   <si>
     <t>24,47%</t>
   </si>
   <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
+    <t>36,35%</t>
   </si>
   <si>
     <t>79,24%</t>
   </si>
   <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>84,75%</t>
   </si>
   <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
   </si>
   <si>
     <t>82,66%</t>
   </si>
   <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
   </si>
   <si>
     <t>17,34%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FC884C-DDE8-4575-9733-52DDE09E07BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A750D432-F86B-4077-A246-C68C77965EE5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2081,7 +2063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4136B2B6-F046-484C-B0C8-438CF1E85450}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E98C6A5-89EA-4264-857A-9D76865EE3C3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2530,13 +2512,13 @@
         <v>43099</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -2545,13 +2527,13 @@
         <v>64053</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,13 +2548,13 @@
         <v>2085</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -2581,13 +2563,13 @@
         <v>2833</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -2596,13 +2578,13 @@
         <v>4917</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,10 +2652,10 @@
         <v>9644</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -2685,13 +2667,13 @@
         <v>24716</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -2700,13 +2682,13 @@
         <v>34361</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2703,13 @@
         <v>1826</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -2736,13 +2718,13 @@
         <v>6158</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -2751,13 +2733,13 @@
         <v>7983</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,13 +2807,13 @@
         <v>20544</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -2840,13 +2822,13 @@
         <v>33288</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -2855,13 +2837,13 @@
         <v>53833</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2858,13 @@
         <v>9542</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -2891,13 +2873,13 @@
         <v>7898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -2906,13 +2888,13 @@
         <v>17440</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2962,13 @@
         <v>68296</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H19" s="7">
         <v>111</v>
@@ -2995,13 +2977,13 @@
         <v>119631</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M19" s="7">
         <v>177</v>
@@ -3010,13 +2992,13 @@
         <v>187928</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3013,13 @@
         <v>17889</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -3046,13 +3028,13 @@
         <v>21527</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -3061,13 +3043,13 @@
         <v>39415</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
